--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84CA23A-FD43-4865-9B82-14AFC5F68649}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D42A0473-F677-4EF4-93F5-C5D6CBB378F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,15 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>TEST_EXCELA</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>bbb</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>KOD_TOWARU</t>
+  </si>
+  <si>
+    <t>ILOSC</t>
+  </si>
+  <si>
+    <t>KOD_TOWARU_SKLADOWEGO</t>
+  </si>
+  <si>
+    <t>MAGAZYN</t>
+  </si>
+  <si>
+    <t>mag2</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0009</t>
   </si>
 </sst>
 </file>
@@ -64,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -346,15 +359,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -362,23 +377,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>222</v>
-      </c>
-      <c r="D1">
-        <v>111</v>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>333</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D42A0473-F677-4EF4-93F5-C5D6CBB378F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{36AD67E1-FFEE-42C6-9E01-ED6CC9EE1AEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>KOD_TOWARU</t>
   </si>
@@ -37,10 +37,19 @@
     <t>mag2</t>
   </si>
   <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
     <t>0010</t>
   </si>
   <si>
-    <t>0009</t>
+    <t>00013</t>
+  </si>
+  <si>
+    <t>0007</t>
   </si>
 </sst>
 </file>
@@ -359,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,15 +397,57 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C2">
-        <v>77</v>
+        <v>9999</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>8888</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>8888</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2222</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{36AD67E1-FFEE-42C6-9E01-ED6CC9EE1AEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9412FB58-1E1C-442E-AA85-286E11D7030C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>KOD_TOWARU</t>
   </si>
@@ -40,16 +40,13 @@
     <t>0009</t>
   </si>
   <si>
-    <t>0011</t>
-  </si>
-  <si>
     <t>0010</t>
   </si>
   <si>
-    <t>00013</t>
-  </si>
-  <si>
     <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
   </si>
 </sst>
 </file>
@@ -368,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,10 +397,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>9999</v>
+        <v>12345</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -411,21 +408,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>8888</v>
+        <v>9999</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -438,18 +435,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>2222</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9412FB58-1E1C-442E-AA85-286E11D7030C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3AC50AD6-742A-456D-8093-FC4765A08662}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>KOD_TOWARU</t>
   </si>
@@ -46,7 +46,7 @@
     <t>0007</t>
   </si>
   <si>
-    <t>0008</t>
+    <t>###</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,30 +380,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>12345</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -411,31 +402,33 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>9999</v>
+        <v>12345</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>8888</v>
+        <v>9999</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
